--- a/Docs/Suorituskykymittauksia.xlsx
+++ b/Docs/Suorituskykymittauksia.xlsx
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1764,7 +1764,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Docs/Suorituskykymittauksia.xlsx
+++ b/Docs/Suorituskykymittauksia.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Verkon luonti</t>
   </si>
@@ -29,24 +29,12 @@
     <t>A* -polunetsintä</t>
   </si>
   <si>
-    <t>Verkon luonti O(n)</t>
-  </si>
-  <si>
     <t>Solmuja (n)</t>
   </si>
   <si>
-    <t>A* -alustus O(n log n)</t>
-  </si>
-  <si>
-    <t>A* -polunetsintä O(e log n)</t>
-  </si>
-  <si>
     <t>e = enintään 4n</t>
   </si>
   <si>
-    <t>Tulostus O(n^2)</t>
-  </si>
-  <si>
     <t>Miltä O(n) pitäisi näyttää:</t>
   </si>
   <si>
@@ -62,21 +50,59 @@
     <t>Miltä n^2 pitäisi näyttää:</t>
   </si>
   <si>
-    <t>Kuvaajat välilehdissä</t>
-  </si>
-  <si>
-    <t>ms/solmu</t>
-  </si>
-  <si>
     <t>Montako (alustusta ja) polunetsintää per verkon luonti</t>
+  </si>
+  <si>
+    <t>Dijkstra</t>
+  </si>
+  <si>
+    <t>A*</t>
+  </si>
+  <si>
+    <t>läpikäytyjä solmuja</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Käytännöllisillä kartoilla</t>
+  </si>
+  <si>
+    <t>Synteettisillä kartoilla (kaikki solmut painoltaan 5, lähtö- ja maalisolmut vastakkaisissa nurkissa)</t>
+  </si>
+  <si>
+    <t>Synteettiset kartat Dijkstralla</t>
+  </si>
+  <si>
+    <t>Kulunut kokonaisaika (s)</t>
+  </si>
+  <si>
+    <t>Polunetsintään kulunut aika (s)</t>
+  </si>
+  <si>
+    <t>Synteettinen 20000 solmun kartta, jossa lähtösolmu on keskellä seinän kera</t>
+  </si>
+  <si>
+    <t>Huom: BFS-implementaatio ei huomioi kaaripainoja (testikartassa kaikki painot samoja)</t>
+  </si>
+  <si>
+    <t>Verkon luonti O(n) (ms)</t>
+  </si>
+  <si>
+    <t>Alustus O(n log n) (ms)</t>
+  </si>
+  <si>
+    <t>Polunetsintä O(e log n) (ms)</t>
+  </si>
+  <si>
+    <t>Tulostus O(n^2) (ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
@@ -88,6 +114,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -160,23 +187,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -186,24 +201,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuutta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,12 +453,12 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>382330</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>153432</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>105827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Kuva 1" descr="astar alustus.png"/>
+        <xdr:cNvPr id="8" name="Kuva 7" descr="astar alustus uusi.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -454,7 +472,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9526330" cy="7392432"/>
+          <a:ext cx="9526330" cy="7535327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -466,14 +484,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:colOff>46916</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:colOff>257886</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>12039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -491,8 +509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9526" y="8001000"/>
-          <a:ext cx="3943350" cy="3060039"/>
+          <a:off x="46916" y="8191500"/>
+          <a:ext cx="3868570" cy="3060039"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -504,25 +522,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Suora yhdysviiva 4"/>
+        <xdr:cNvPr id="10" name="Suora yhdysviiva 9"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2638425" y="5067300"/>
-          <a:ext cx="114300" cy="266700"/>
+          <a:off x="2667000" y="4953000"/>
+          <a:ext cx="104775" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -548,25 +566,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Suora yhdysviiva 6"/>
+        <xdr:cNvPr id="14" name="Suora yhdysviiva 13"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2743200" y="4286250"/>
-          <a:ext cx="400050" cy="790575"/>
+          <a:off x="2771775" y="4238625"/>
+          <a:ext cx="295275" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -592,25 +610,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Suora yhdysviiva 10"/>
+        <xdr:cNvPr id="16" name="Suora yhdysviiva 15"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3143250" y="2971800"/>
-          <a:ext cx="1600200" cy="1314450"/>
+          <a:off x="3076575" y="4000500"/>
+          <a:ext cx="76200" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -635,26 +653,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Suora yhdysviiva 12"/>
+        <xdr:cNvPr id="18" name="Suora yhdysviiva 17"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4752975" y="2057400"/>
-          <a:ext cx="2114550" cy="914400"/>
+          <a:off x="3162300" y="3286125"/>
+          <a:ext cx="323850" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -677,6 +695,94 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Suora yhdysviiva 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3486150" y="3286125"/>
+          <a:ext cx="200025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Suora yhdysviiva 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3686175" y="2085975"/>
+          <a:ext cx="3181350" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -692,12 +798,12 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>382330</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>153432</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>105827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Kuva 1" descr="astar polunetsinta.png"/>
+        <xdr:cNvPr id="8" name="Kuva 7" descr="astar polunetsinta uusi.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -711,7 +817,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9526330" cy="7392432"/>
+          <a:ext cx="9526330" cy="7535327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -723,14 +829,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:colOff>37390</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:colOff>248360</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>12039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -748,8 +854,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8001000"/>
-          <a:ext cx="3943350" cy="3060039"/>
+          <a:off x="37390" y="8191500"/>
+          <a:ext cx="3868570" cy="3060039"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -761,15 +867,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -778,8 +884,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2638425" y="4429125"/>
-          <a:ext cx="114300" cy="904875"/>
+          <a:off x="2647950" y="4305301"/>
+          <a:ext cx="123825" cy="1114424"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -805,25 +911,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Suora yhdysviiva 6"/>
+        <xdr:cNvPr id="14" name="Suora yhdysviiva 13"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2752725" y="3781425"/>
-          <a:ext cx="400050" cy="647700"/>
+        <a:xfrm flipV="1">
+          <a:off x="2771775" y="3429000"/>
+          <a:ext cx="295275" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -849,25 +955,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Suora yhdysviiva 8"/>
+        <xdr:cNvPr id="16" name="Suora yhdysviiva 15"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3143251" y="2514600"/>
-          <a:ext cx="1600199" cy="1276350"/>
+          <a:off x="3076575" y="3152775"/>
+          <a:ext cx="85725" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -892,26 +998,114 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Suora yhdysviiva 10"/>
+        <xdr:cNvPr id="18" name="Suora yhdysviiva 17"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3162300" y="3152775"/>
+          <a:ext cx="333375" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Suora yhdysviiva 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4743450" y="2057400"/>
-          <a:ext cx="2124075" cy="457200"/>
+          <a:off x="3505200" y="2895600"/>
+          <a:ext cx="171450" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Suora yhdysviiva 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3676650" y="2095500"/>
+          <a:ext cx="3209925" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1479,290 +1673,531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4" s="3">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10">
+        <f>B4/(C4+D4)</f>
+        <v>12.666666666666666</v>
+      </c>
+      <c r="G4" s="16">
+        <f>SUM(B4:E4)/1000</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <f>SUM(C4:D4)/1000</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>760</v>
+      </c>
+      <c r="B5" s="4">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9">
+        <f>B5/(C5+D5)</f>
+        <v>7</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" ref="G5:G23" si="0">SUM(B5:E5)/1000</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" ref="H5:H23" si="1">SUM(C5:D5)/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>3040</v>
+      </c>
+      <c r="B6" s="4">
+        <v>381</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>40</v>
+      </c>
+      <c r="F6" s="9">
+        <f>B6/(C6+D6)</f>
+        <v>15.24</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="0"/>
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>12160</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7109</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2">
+        <v>565</v>
+      </c>
+      <c r="F7" s="9">
+        <f>B7/(C7+D7)</f>
+        <v>139.39215686274511</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="0"/>
+        <v>7.7249999999999996</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>24320</v>
+      </c>
+      <c r="B8" s="4">
+        <v>33728</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6">
+        <v>49</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1085</v>
+      </c>
+      <c r="F8" s="9">
+        <f>B8/(C8+D8)</f>
+        <v>571.66101694915255</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="0"/>
+        <v>34.872</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="1"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13">
+        <v>100</v>
+      </c>
+      <c r="B11" s="3">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17">
+        <f>B11/(C11+D11)</f>
+        <v>18.5</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13">
+        <v>10000</v>
+      </c>
+      <c r="B12">
+        <v>5195</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13">
+        <v>543</v>
+      </c>
+      <c r="F12" s="11">
+        <f>B12/(C12+D12)</f>
+        <v>115.44444444444444</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="0"/>
+        <v>5.7830000000000004</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13">
+        <v>100172</v>
+      </c>
+      <c r="B13">
+        <v>726866</v>
+      </c>
+      <c r="C13">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13" s="13">
+        <v>5672</v>
+      </c>
+      <c r="F13" s="11">
+        <f>B13/(C13+D13)</f>
+        <v>9200.835443037975</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="0"/>
+        <v>732.61699999999996</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="1"/>
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="F14" s="2"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="13">
+        <v>100</v>
+      </c>
+      <c r="B16" s="3">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17">
+        <f>B16/(C16+D16)</f>
+        <v>18.5</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13">
+        <v>10000</v>
+      </c>
+      <c r="B17">
+        <v>4893</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>39</v>
+      </c>
+      <c r="E17" s="13">
+        <v>541</v>
+      </c>
+      <c r="F17" s="11">
+        <f>B17/(C17+D17)</f>
+        <v>116.5</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="0"/>
+        <v>5.476</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="1"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
+        <v>100172</v>
+      </c>
+      <c r="B18">
+        <v>715800</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>64</v>
+      </c>
+      <c r="E18" s="13">
+        <v>5667</v>
+      </c>
+      <c r="F18" s="11">
+        <f>B18/(C18+D18)</f>
+        <v>9418.4210526315783</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="0"/>
+        <v>721.54300000000001</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="1"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="F19" s="2"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20210</v>
+      </c>
+      <c r="C21" s="1">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="D21" s="1">
+        <v>45</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1043</v>
+      </c>
+      <c r="F21" s="17">
+        <f>B21/(C21+D21)</f>
+        <v>396.27450980392155</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="0"/>
+        <v>21.303999999999998</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>17359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>20076</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>42</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1043</v>
+      </c>
+      <c r="F22" s="11">
+        <f>B22/(C22+D22)</f>
+        <v>386.07692307692309</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="0"/>
+        <v>21.170999999999999</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I22">
+        <v>13486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>20030</v>
+      </c>
+      <c r="D23">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>200</v>
-      </c>
-      <c r="B2" s="3">
-        <v>38</v>
-      </c>
-      <c r="C2" s="9">
-        <f>B2/A2</f>
-        <v>0.19</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="11">
-        <f>D2/A2</f>
-        <v>0.01</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11">
-        <f>F2/A2</f>
-        <v>0.01</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" s="8">
-        <f>H2/A2</f>
-        <v>0.02</v>
-      </c>
-      <c r="J2" s="16">
-        <f>B2/(D2+F2)</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>760</v>
-      </c>
-      <c r="B3" s="4">
-        <v>57</v>
-      </c>
-      <c r="C3" s="10">
-        <f>B3/A3</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4</v>
-      </c>
-      <c r="E3" s="12">
-        <f t="shared" ref="E3:E6" si="0">D3/A3</f>
-        <v>5.263157894736842E-3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>12</v>
-      </c>
-      <c r="G3" s="12">
-        <f t="shared" ref="G3:G5" si="1">F3/A3</f>
-        <v>1.5789473684210527E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>11</v>
-      </c>
-      <c r="I3" s="7">
-        <f t="shared" ref="I3:I6" si="2">H3/A3</f>
-        <v>1.4473684210526316E-2</v>
-      </c>
-      <c r="J3" s="15">
-        <f t="shared" ref="J3:J5" si="3">B3/(D3+F3)</f>
-        <v>3.5625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>3040</v>
-      </c>
-      <c r="B4" s="4">
-        <v>487</v>
-      </c>
-      <c r="C4" s="10">
-        <f t="shared" ref="C4:C6" si="4">B4/A4</f>
-        <v>0.16019736842105264</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="E23" s="13">
+        <v>1044</v>
+      </c>
+      <c r="F23" s="11">
+        <f>B23/(C23+D23)</f>
+        <v>1251.875</v>
+      </c>
+      <c r="G23" s="15">
         <f t="shared" si="0"/>
-        <v>3.2894736842105261E-3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>19</v>
-      </c>
-      <c r="G4" s="12">
+        <v>21.09</v>
+      </c>
+      <c r="H23" s="20">
         <f t="shared" si="1"/>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>42</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" si="2"/>
-        <v>1.381578947368421E-2</v>
-      </c>
-      <c r="J4" s="15">
-        <f t="shared" si="3"/>
-        <v>16.793103448275861</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>12160</v>
-      </c>
-      <c r="B5" s="4">
-        <v>7125</v>
-      </c>
-      <c r="C5" s="10">
-        <f t="shared" si="4"/>
-        <v>0.5859375</v>
-      </c>
-      <c r="D5" s="2">
-        <v>20</v>
-      </c>
-      <c r="E5" s="12">
-        <f t="shared" si="0"/>
-        <v>1.6447368421052631E-3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>33</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" si="1"/>
-        <v>2.7138157894736844E-3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>566</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="2"/>
-        <v>4.6546052631578946E-2</v>
-      </c>
-      <c r="J5" s="15">
-        <f t="shared" si="3"/>
-        <v>134.43396226415095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>24320</v>
-      </c>
-      <c r="B6" s="4">
-        <v>33964</v>
-      </c>
-      <c r="C6" s="10">
-        <f t="shared" si="4"/>
-        <v>1.3965460526315789</v>
-      </c>
-      <c r="D6" s="6">
-        <v>27</v>
-      </c>
-      <c r="E6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1101973684210526E-3</v>
-      </c>
-      <c r="F6" s="6">
-        <v>38</v>
-      </c>
-      <c r="G6" s="12">
-        <f>F6/A6</f>
-        <v>1.5625000000000001E-3</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1071</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="2"/>
-        <v>4.4037828947368421E-2</v>
-      </c>
-      <c r="J6" s="15">
-        <f>B6/(D6+F6)</f>
-        <v>522.52307692307693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>14</v>
+        <v>1.6E-2</v>
+      </c>
+      <c r="I23">
+        <v>19706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C6">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G6">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I6">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1772,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A40:A42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
@@ -1785,7 +2220,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1796,22 +2231,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A40:A42"/>
+  <dimension ref="A41:A43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>10</v>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1823,22 +2258,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A40:A42"/>
+  <dimension ref="A41:A43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>11</v>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +2286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A40:A42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -1859,12 +2294,12 @@
   <sheetData>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
